--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -58,12 +58,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
@@ -73,166 +73,172 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>comfortable</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>highly</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cook</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>big</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
-    <t>little</t>
+    <t>really</t>
   </si>
   <si>
     <t>one</t>
@@ -241,19 +247,13 @@
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -683,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4031007751937984</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -733,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3434343434343434</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.921875</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +783,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8544891640866873</v>
+        <v>0.8606811145510835</v>
       </c>
       <c r="L5">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M5">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +809,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8478260869565217</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +835,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8115942028985508</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +861,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +887,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -913,13 +913,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7012987012987013</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -939,13 +939,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -965,13 +965,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -991,13 +991,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6875</v>
+        <v>0.65625</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1017,13 +1017,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6847457627118644</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L14">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1043,13 +1043,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6500802568218299</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L15">
-        <v>810</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>810</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>436</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1069,13 +1069,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6338028169014085</v>
+        <v>0.6396468699839486</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>797</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>797</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1095,7 +1095,7 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6142857142857143</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L17">
         <v>43</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1121,13 +1121,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6078431372549019</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1147,7 +1147,7 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6029411764705882</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L19">
         <v>41</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1173,13 +1173,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5828571428571429</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L20">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1199,13 +1199,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5789473684210527</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1225,13 +1225,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5769230769230769</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L22">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1251,13 +1251,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5614035087719298</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1277,13 +1277,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5568862275449101</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L24">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="M24">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1306,10 +1306,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1355,13 +1355,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5128205128205128</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1381,13 +1381,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5079365079365079</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1407,25 +1407,25 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5060240963855421</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L29">
+        <v>41</v>
+      </c>
+      <c r="M29">
+        <v>41</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>42</v>
-      </c>
-      <c r="M29">
-        <v>42</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1433,13 +1433,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4918032786885246</v>
+        <v>0.49</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1459,13 +1459,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.4605263157894737</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1485,13 +1485,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.46</v>
+        <v>0.4518072289156627</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1511,13 +1511,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4567901234567901</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1537,13 +1537,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.4264705882352941</v>
+        <v>0.4163424124513619</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1563,13 +1563,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.4210526315789473</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="L35">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M35">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1589,13 +1589,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.4124513618677043</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L36">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>151</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1615,25 +1615,25 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.4036144578313253</v>
+        <v>0.3734643734643734</v>
       </c>
       <c r="L37">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M37">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>99</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1641,13 +1641,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.3823529411764706</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L38">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>252</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1667,13 +1667,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.3762376237623762</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1693,13 +1693,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3690476190476191</v>
+        <v>0.3534246575342466</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>53</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1719,13 +1719,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.3603603603603603</v>
+        <v>0.3453237410071943</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1745,13 +1745,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.3561643835616438</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="L42">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>470</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1771,13 +1771,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.3458646616541353</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L43">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1797,13 +1797,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.3381294964028777</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L44">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1823,13 +1823,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.3377483443708609</v>
+        <v>0.2913907284768212</v>
       </c>
       <c r="L45">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M45">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1849,25 +1849,25 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.3301435406698565</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L46">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M46">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1875,13 +1875,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.3148148148148148</v>
+        <v>0.2615715823466093</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>74</v>
+        <v>686</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1901,13 +1901,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.2684563758389262</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L48">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M48">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>109</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1927,13 +1927,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.2594187298170075</v>
+        <v>0.223841059602649</v>
       </c>
       <c r="L49">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="M49">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>688</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1953,13 +1953,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.2278145695364238</v>
+        <v>0.2237851662404092</v>
       </c>
       <c r="L50">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M50">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>583</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1979,13 +1979,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.2250639386189258</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L51">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="M51">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>606</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2005,13 +2005,13 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.2163009404388715</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L52">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M52">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2031,13 +2031,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.2134146341463415</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L53">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M53">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2057,25 +2057,25 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1972972972972973</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L54">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="M54">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="N54">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>297</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2083,25 +2083,25 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.1732456140350877</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="L55">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="M55">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>377</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2109,13 +2109,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.1694915254237288</v>
+        <v>0.1670644391408115</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>147</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2135,13 +2135,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.1592592592592593</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L57">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="M57">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>227</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2161,25 +2161,25 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1549815498154982</v>
+        <v>0.1635687732342007</v>
       </c>
       <c r="L58">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M58">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2187,25 +2187,25 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1393643031784841</v>
+        <v>0.1576354679802956</v>
       </c>
       <c r="L59">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M59">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="N59">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>352</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2213,13 +2213,13 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.1340909090909091</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="L60">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M60">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>381</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2239,13 +2239,13 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.1288782816229117</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L61">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M61">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2265,13 +2265,13 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.1260504201680672</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L62">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M62">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>208</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2291,13 +2291,13 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.1209677419354839</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L63">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M63">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2317,13 +2317,13 @@
         <v>72</v>
       </c>
       <c r="K64">
-        <v>0.1168384879725086</v>
+        <v>0.1295454545454545</v>
       </c>
       <c r="L64">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M64">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>257</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2343,25 +2343,25 @@
         <v>73</v>
       </c>
       <c r="K65">
-        <v>0.1021555763823805</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L65">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="M65">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>958</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2369,25 +2369,25 @@
         <v>74</v>
       </c>
       <c r="K66">
-        <v>0.1005747126436782</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="L66">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="M66">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="N66">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>626</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2395,13 +2395,13 @@
         <v>75</v>
       </c>
       <c r="K67">
-        <v>0.09836065573770492</v>
+        <v>0.09328358208955224</v>
       </c>
       <c r="L67">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M67">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>330</v>
+        <v>972</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2421,13 +2421,13 @@
         <v>76</v>
       </c>
       <c r="K68">
-        <v>0.07888040712468193</v>
+        <v>0.09051724137931035</v>
       </c>
       <c r="L68">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="M68">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N68">
         <v>0.97</v>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>362</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2447,25 +2447,25 @@
         <v>77</v>
       </c>
       <c r="K69">
-        <v>0.07024029574861368</v>
+        <v>0.07578558225508318</v>
       </c>
       <c r="L69">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M69">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2473,25 +2473,25 @@
         <v>78</v>
       </c>
       <c r="K70">
-        <v>0.05815972222222222</v>
+        <v>0.06513409961685823</v>
       </c>
       <c r="L70">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="M70">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="N70">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1085</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2499,25 +2499,25 @@
         <v>79</v>
       </c>
       <c r="K71">
-        <v>0.03937007874015748</v>
+        <v>0.05117085862966175</v>
       </c>
       <c r="L71">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="M71">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="N71">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O71">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>732</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
